--- a/public/website/Template QC - Type Product.xlsx
+++ b/public/website/Template QC - Type Product.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nexus_qc\public\website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30ECBCCC-FD37-4218-B416-3FE4E3F215E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14E501B-6A0E-4060-BAF5-7B369ABA1A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{A3DCF785-C53C-4D5E-BAD4-FD893C938BDF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A3DCF785-C53C-4D5E-BAD4-FD893C938BDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Class Product ID</t>
-  </si>
-  <si>
-    <t>Gender ID</t>
   </si>
   <si>
     <t>Group Size ID</t>
@@ -441,23 +438,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA6D9CF-D589-40C3-9DE2-291CB4B78DDE}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.453125" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" customWidth="1"/>
-    <col min="5" max="5" width="20.7265625" customWidth="1"/>
-    <col min="6" max="6" width="24.90625" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,86 +465,74 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/public/website/Template QC - Type Product.xlsx
+++ b/public/website/Template QC - Type Product.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nexus_qc\public\website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14E501B-6A0E-4060-BAF5-7B369ABA1A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522B3495-84B1-482D-A910-F75D6DC08A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A3DCF785-C53C-4D5E-BAD4-FD893C938BDF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Class Product ID</t>
-  </si>
-  <si>
-    <t>Group Size ID</t>
   </si>
   <si>
     <t>Type Product</t>
@@ -438,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA6D9CF-D589-40C3-9DE2-291CB4B78DDE}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +451,7 @@
     <col min="6" max="6" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,77 +459,65 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/public/website/Template QC - Type Product.xlsx
+++ b/public/website/Template QC - Type Product.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nexus_qc\public\website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522B3495-84B1-482D-A910-F75D6DC08A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77056A9E-5B1C-4995-A772-8EAD23739B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A3DCF785-C53C-4D5E-BAD4-FD893C938BDF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A3DCF785-C53C-4D5E-BAD4-FD893C938BDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Class Product ID</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>SMV Global</t>
+  </si>
+  <si>
+    <t>Group ID</t>
   </si>
 </sst>
 </file>
@@ -435,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA6D9CF-D589-40C3-9DE2-291CB4B78DDE}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,73 +454,85 @@
     <col min="6" max="6" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/public/website/Template QC - Type Product.xlsx
+++ b/public/website/Template QC - Type Product.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nexus_qc\public\website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77056A9E-5B1C-4995-A772-8EAD23739B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCB1229-D3D6-4146-B680-FA97675A4BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A3DCF785-C53C-4D5E-BAD4-FD893C938BDF}"/>
+    <workbookView xWindow="5115" yWindow="2475" windowWidth="15375" windowHeight="8325" xr2:uid="{A3DCF785-C53C-4D5E-BAD4-FD893C938BDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Class Product ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Type Product</t>
   </si>
@@ -438,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA6D9CF-D589-40C3-9DE2-291CB4B78DDE}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,85 +451,73 @@
     <col min="6" max="6" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
